--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,22 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Summarizes the insight associated with the element that the insight summary extension is embedded in. The insight array element in the meta section of the resource with the same insight record id contains the full details on the insight. </t>
+    <t>Summarizes the insight associated with the element that the insight summary extension is embedded in. The insight array element in the meta section of the resource with the same insight record id contains the full details on the insight.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.extension.id</t>
@@ -543,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -619,98 +622,92 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -769,203 +766,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>76</v>
@@ -974,7 +971,7 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -983,23 +980,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>80</v>
@@ -1013,65 +1010,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>84</v>
@@ -1087,19 +1084,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>87</v>
@@ -1115,38 +1112,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>91</v>
@@ -1155,7 +1152,7 @@
         <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>93</v>
@@ -1164,13 +1161,13 @@
         <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
@@ -1187,23 +1184,23 @@
         <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>96</v>
@@ -1217,68 +1214,68 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1289,23 +1286,23 @@
         <v>99</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>100</v>
@@ -1319,68 +1316,68 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1389,23 +1386,23 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -1419,65 +1416,65 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>84</v>
@@ -1489,68 +1486,68 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>91</v>
@@ -1559,7 +1556,7 @@
         <v>92</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>93</v>
@@ -1568,44 +1565,44 @@
         <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>80</v>
@@ -1619,65 +1616,65 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>84</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1693,19 +1690,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>87</v>
@@ -1721,38 +1718,38 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>91</v>
@@ -1761,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>93</v>
@@ -1770,13 +1767,13 @@
         <v>94</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
@@ -1787,11 +1784,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -1801,75 +1798,75 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -1878,122 +1875,122 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2003,75 +2000,75 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2080,220 +2077,220 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2303,75 +2300,75 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -2380,113 +2377,113 @@
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -338,13 +338,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -360,59 +354,53 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
   </si>
 </sst>
 </file>
@@ -717,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -726,7 +714,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1590,7 +1578,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
@@ -1605,22 +1593,24 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="R9" t="s" s="2">
         <v>73</v>
@@ -1662,10 +1652,10 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1677,23 +1667,23 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1705,17 +1695,15 @@
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -1752,47 +1740,47 @@
         <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>79</v>
@@ -1807,17 +1795,15 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -1842,13 +1828,11 @@
         <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>73</v>
@@ -1866,10 +1850,10 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -1878,15 +1862,15 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1894,7 +1878,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -1909,22 +1893,24 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>73</v>
@@ -1966,10 +1952,10 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -1978,15 +1964,15 @@
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1994,10 +1980,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2009,24 +1995,22 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>73</v>
@@ -2068,10 +2052,10 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2080,410 +2064,10 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -715,41 +715,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="98.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.87109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-insight-summary.xlsx
+++ b/StructureDefinition-insight-summary.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/insight-summary</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-summary</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -247,72 +247,72 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>insightId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight-id}
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>insightId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight-id}
-</t>
-  </si>
-  <si>
     <t>ID for the insight.</t>
   </si>
   <si>
@@ -322,7 +322,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/category}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/category}
 </t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/category</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/category</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -396,7 +396,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/insight-category-values</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/insight-category-values</t>
   </si>
   <si>
     <t>base64Binary
@@ -738,7 +738,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.87109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -956,7 +956,7 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -975,25 +975,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1044,31 +1044,31 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1087,16 +1087,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1134,19 +1134,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1158,15 +1158,15 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>95</v>
@@ -1179,7 +1179,7 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1248,7 +1248,7 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
@@ -1260,7 +1260,7 @@
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>99</v>
@@ -1281,7 +1281,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1350,7 +1350,7 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
@@ -1362,7 +1362,7 @@
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1381,25 +1381,25 @@
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1450,22 +1450,22 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1493,7 +1493,7 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>28</v>
@@ -1538,19 +1538,19 @@
         <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB8" t="s" s="2">
+      <c r="AC8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
+      <c r="AE8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1562,7 +1562,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -1578,10 +1578,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1655,10 +1655,10 @@
         <v>111</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1683,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>73</v>
@@ -1756,7 +1756,7 @@
         <v>74</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -1783,7 +1783,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -1856,7 +1856,7 @@
         <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -1878,10 +1878,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -1955,10 +1955,10 @@
         <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2058,7 +2058,7 @@
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
